--- a/biology/Zoologie/Ceratomyrmex/Ceratomyrmex.xlsx
+++ b/biology/Zoologie/Ceratomyrmex/Ceratomyrmex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceratomyrmex ellenbergeri
-Ceratomyrmex (la « fourmi-licorne ») est un genre fossile de fourmis ayant vécu au début du Crétacé supérieur (Cénomanien), il y a environ 98,79 millions d'années[1].
-Quatre spécimens ont été découverts dans de l'ambre de Birmanie. Ils appartiennent tous à la même et unique espèce du genre, Ceratomyrmex ellenbergeri, décrite en 2016 par Vincent Perrichot (d), Bo Wang (d) et Michael S. Engel en 2016[1].
-Ceratomyrmex  n'est qu'un genre de fourmis parmi plusieurs autres provenant de l'ambre de Birmanie : Burmomyrma[n 1], Camelomecia, Gerontoformica, Haidomyrmex, Linguamyrmex, Myanmyrma et Zigrasimecia[2],[3]
+Ceratomyrmex (la « fourmi-licorne ») est un genre fossile de fourmis ayant vécu au début du Crétacé supérieur (Cénomanien), il y a environ 98,79 millions d'années.
+Quatre spécimens ont été découverts dans de l'ambre de Birmanie. Ils appartiennent tous à la même et unique espèce du genre, Ceratomyrmex ellenbergeri, décrite en 2016 par Vincent Perrichot (d), Bo Wang (d) et Michael S. Engel en 2016.
+Ceratomyrmex  n'est qu'un genre de fourmis parmi plusieurs autres provenant de l'ambre de Birmanie : Burmomyrma[n 1], Camelomecia, Gerontoformica, Haidomyrmex, Linguamyrmex, Myanmyrma et Zigrasimecia,
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle doit son nom (Ceratomyrmex, « fourmi à corne ») à la « corne-spatule » qui se dresse sur sa tête.
 </t>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette « corne » est recouverte de longues soies sur toute sa partie antérieure, auxquelles s'ajoute une brosse d'épines sur la partie terminale spatulée.
 </t>
